--- a/out8.xlsx
+++ b/out8.xlsx
@@ -1275,7 +1275,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1645,7 +1645,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1749,9 +1749,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>MADRI-MADR-H-01-DAAS</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">

--- a/out8.xlsx
+++ b/out8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,12 +493,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,12 +530,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,12 +567,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,12 +604,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,12 +641,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>xe-0/0/18</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,12 +678,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>xe-0/0/19</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,12 +715,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>xe-0/0/20</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,12 +752,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>xe-0/0/21</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,12 +789,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>xe-0/0/22</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,12 +826,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>xe-0/0/23</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -863,12 +863,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>xe-0/0/24</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,12 +900,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>xe-0/0/25</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -937,12 +937,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>xe-0/0/26</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -974,12 +974,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-FONT-H-01-DAAS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1009,21 +1009,9 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>xe-0/0/28</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1032,7 +1020,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1046,21 +1034,9 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>xe-0/0/29</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1069,7 +1045,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1083,21 +1059,9 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>xe-0/0/30</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1106,7 +1070,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1120,21 +1084,9 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>xe-0/0/31</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1143,7 +1095,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1157,21 +1109,9 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>xe-0/0/32</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1180,7 +1120,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1194,21 +1134,9 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>xe-0/0/33</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1217,7 +1145,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1231,21 +1159,9 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>xe-0/0/34</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1254,7 +1170,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1268,21 +1184,9 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>xe-0/0/35</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1291,7 +1195,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1305,21 +1209,9 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1328,7 +1220,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1342,21 +1234,9 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1365,7 +1245,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1379,21 +1259,9 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1402,7 +1270,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1416,21 +1284,9 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1439,7 +1295,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1453,21 +1309,9 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1476,7 +1320,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1490,21 +1334,9 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1513,12 +1345,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>11:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1527,21 +1359,9 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1550,12 +1370,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>11:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1564,21 +1384,9 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1587,12 +1395,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>12:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1601,21 +1409,9 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1624,12 +1420,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>12:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1638,21 +1434,9 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1661,12 +1445,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>13:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1675,21 +1459,9 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1698,12 +1470,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:1</t>
+          <t>13:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1712,21 +1484,9 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1735,7 +1495,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1749,21 +1509,9 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1772,7 +1520,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1797,7 +1545,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1822,7 +1570,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1847,7 +1595,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1872,7 +1620,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1897,12 +1645,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1922,12 +1670,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>20:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1947,12 +1695,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>21:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1972,12 +1720,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>21:1</t>
+          <t>20:1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1997,12 +1745,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>22:0</t>
+          <t>21:0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2022,12 +1770,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>22:1</t>
+          <t>21:1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2047,7 +1795,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2072,7 +1820,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2097,7 +1845,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2122,7 +1870,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2147,7 +1895,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2172,7 +1920,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2197,7 +1945,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2222,7 +1970,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2247,7 +1995,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2272,7 +2020,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2297,7 +2045,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2322,7 +2070,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2347,7 +2095,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2372,7 +2120,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2397,7 +2145,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2422,7 +2170,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2447,7 +2195,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2472,7 +2220,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2497,7 +2245,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2522,7 +2270,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2547,7 +2295,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2572,7 +2320,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2597,7 +2345,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2622,7 +2370,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2647,7 +2395,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2672,7 +2420,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2697,7 +2445,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2722,7 +2470,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2747,7 +2495,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2772,7 +2520,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2797,7 +2545,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2822,7 +2570,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2847,7 +2595,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2872,7 +2620,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2897,12 +2645,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2922,12 +2670,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2947,12 +2695,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2972,12 +2720,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2997,12 +2745,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3022,12 +2770,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3047,12 +2795,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3072,12 +2820,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3097,12 +2845,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3122,12 +2870,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3147,12 +2895,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3172,12 +2920,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3197,12 +2945,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3222,12 +2970,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3247,12 +2995,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3272,12 +3020,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3297,12 +3045,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3322,12 +3070,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3347,12 +3095,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3372,12 +3120,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3397,12 +3145,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3422,12 +3170,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3447,12 +3195,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>4:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3472,12 +3220,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3497,12 +3245,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3522,12 +3270,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3547,12 +3295,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3572,12 +3320,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3597,12 +3345,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3622,12 +3370,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3647,12 +3395,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3672,12 +3420,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3697,12 +3445,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3722,12 +3470,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3747,12 +3495,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3772,12 +3520,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3797,12 +3545,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3822,12 +3570,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3847,12 +3595,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3872,12 +3620,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3897,12 +3645,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3922,12 +3670,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3947,12 +3695,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3972,12 +3720,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3997,12 +3745,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4022,12 +3770,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4047,12 +3795,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4072,12 +3820,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4097,12 +3845,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4122,12 +3870,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4147,12 +3895,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4172,12 +3920,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4197,12 +3945,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4222,12 +3970,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4247,12 +3995,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4272,12 +4020,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4297,12 +4045,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4322,12 +4070,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4347,12 +4095,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4372,12 +4120,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4397,12 +4145,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4422,12 +4170,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4447,12 +4195,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4472,12 +4220,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4497,12 +4245,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4522,12 +4270,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4547,12 +4295,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4572,12 +4320,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4597,12 +4345,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4622,12 +4370,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4647,12 +4395,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4672,12 +4420,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4697,12 +4445,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4722,12 +4470,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4747,12 +4495,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4772,12 +4520,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4797,12 +4545,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4822,12 +4570,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4847,12 +4595,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4872,12 +4620,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4897,12 +4645,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4922,12 +4670,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4947,12 +4695,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4972,12 +4720,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4997,12 +4745,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5022,12 +4770,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5047,12 +4795,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5072,12 +4820,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5097,12 +4845,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5122,12 +4870,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5147,12 +4895,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5172,12 +4920,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5197,12 +4945,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5222,12 +4970,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5247,12 +4995,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5272,12 +5020,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5297,12 +5045,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5322,12 +5070,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5347,12 +5095,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5372,12 +5120,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5397,12 +5145,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5422,12 +5170,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5447,12 +5195,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5472,12 +5220,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5497,12 +5245,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5522,12 +5270,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5547,12 +5295,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5572,12 +5320,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5597,12 +5345,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5622,12 +5370,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5647,12 +5395,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5672,12 +5420,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5697,12 +5445,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5722,12 +5470,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5747,12 +5495,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5772,12 +5520,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5797,12 +5545,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5822,12 +5570,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5847,12 +5595,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5872,12 +5620,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5897,12 +5645,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5922,12 +5670,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5947,12 +5695,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5972,12 +5720,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5997,12 +5745,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>99:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6022,12 +5770,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>99:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6047,12 +5795,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>9:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6072,12 +5820,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-09-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>9:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6097,12 +5845,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-10-COS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>100:0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6122,12 +5870,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-FONT-H-10-COS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9:1</t>
+          <t>100:1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6145,9 +5893,21 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>101:0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
@@ -6158,9 +5918,21 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>101:1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -6171,15 +5943,5541 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>102:0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
     </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>102:1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>103:0</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>103:1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>104:0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>104:1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>105:0</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>105:1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>106:0</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>106:1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>107:0</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>107:1</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>108:0</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>108:1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>109:0</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>109:1</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>10:0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>10:1</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>110:0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>110:1</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>111:0</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>111:1</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>112:0</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>112:1</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>11:0</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>11:1</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>12:0</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>12:1</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>13:0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>13:1</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>14:0</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>14:1</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>15:0</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>15:1</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>16:0</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>16:1</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>17:0</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>17:1</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>18:0</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>18:1</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>19:0</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>19:1</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>20:0</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>20:1</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>21:0</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>21:1</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>22:0</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>22:1</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>23:0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>23:1</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>24:0</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>24:1</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>25:0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>25:1</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>26:0</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>26:1</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>27:0</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>27:1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>28:0</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>28:1</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>29:0</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>29:1</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>30:0</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>30:1</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>31:0</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>31:1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>32:0</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>32:1</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>33:0</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>33:1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>34:0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>34:1</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>35:0</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>35:1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>36:0</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>36:1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>37:0</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>37:1</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>38:0</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>38:1</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>39:0</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>39:1</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>40:0</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>40:1</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>41:0</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>41:1</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>42:0</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>42:1</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>43:0</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>43:1</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>44:0</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>44:1</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>45:0</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>45:1</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>46:0</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>46:1</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>47:0</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>47:1</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>48:0</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>48:1</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>49:0</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>49:1</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>4:0</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>4:1</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>50:0</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>50:1</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>51:0</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>51:1</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>52:0</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>52:1</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>53:0</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>53:1</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>54:0</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>54:1</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>55:0</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>55:1</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>56:0</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>56:1</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>57:0</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>57:1</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>58:0</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>58:1</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>59:0</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>59:1</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>5:0</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>5:1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>60:0</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>60:1</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>61:0</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>61:1</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>62:0</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>62:1</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>63:0</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>63:1</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>64:0</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>64:1</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>65:0</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>65:1</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>66:0</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>66:1</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>67:0</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>67:1</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>68:0</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>68:1</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>69:0</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>69:1</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>6:0</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>6:1</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>70:0</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>70:1</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>71:0</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>71:1</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>72:0</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>72:1</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>73:0</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>73:1</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>74:0</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>74:1</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>75:0</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>75:1</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>76:0</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>76:1</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>77:0</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>77:1</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>78:0</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>78:1</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>79:0</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>79:1</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>7:0</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>7:1</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>80:0</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>80:1</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>81:0</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>81:1</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>82:0</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>82:1</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>83:0</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>83:1</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>84:0</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>84:1</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>85:0</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>85:1</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>86:0</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>86:1</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>87:0</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>87:1</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>88:0</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>88:1</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>89:0</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>89:1</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>8:0</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>8:1</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>90:0</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>90:1</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>91:0</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>91:1</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>92:0</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>92:1</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>93:0</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>93:1</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>94:0</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>94:1</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>95:0</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>95:1</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>96:0</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>96:1</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>97:0</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>97:1</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>98:0</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>98:1</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>BOGO-FONT-H-10-COS</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr"/>
+      <c r="C434" t="inlineStr"/>
+      <c r="D434" t="inlineStr"/>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr"/>
+      <c r="C435" t="inlineStr"/>
+      <c r="D435" t="inlineStr"/>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out8.xlsx
+++ b/out8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I436"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Puerto</t>
+          <t>Puerto COS</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Puerto</t>
+          <t>Puerto DAAS</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -477,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,7 +493,7 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,12 +530,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,12 +567,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,12 +604,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,12 +641,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,12 +678,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,12 +715,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,12 +752,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,12 +789,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,12 +826,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -863,12 +863,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,12 +900,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -937,12 +937,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -974,12 +974,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1009,9 +1009,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1020,7 +1032,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1034,9 +1046,21 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1045,7 +1069,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1059,9 +1083,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1070,7 +1106,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1084,9 +1120,21 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1095,7 +1143,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1109,9 +1157,21 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1120,7 +1180,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1134,9 +1194,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1145,7 +1217,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1159,9 +1231,21 @@
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1170,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1184,9 +1268,21 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1195,7 +1291,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1209,9 +1305,21 @@
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1220,7 +1328,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1234,9 +1342,21 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-03-DAAS</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1245,7 +1365,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1259,9 +1379,21 @@
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>xe-0/0/0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1270,7 +1402,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1284,9 +1416,21 @@
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>xe-0/0/1</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr"/>
     </row>
     <row r="28">
@@ -1295,7 +1439,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1309,9 +1453,21 @@
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>xe-0/0/10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1320,7 +1476,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1334,9 +1490,21 @@
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>xe-0/0/11</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1345,7 +1513,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1359,9 +1527,21 @@
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>xe-0/0/12</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1370,7 +1550,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1384,9 +1564,21 @@
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>xe-0/0/13</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1395,7 +1587,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1409,9 +1601,21 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>xe-0/0/14</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1420,7 +1624,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1434,9 +1638,21 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>xe-0/0/15</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1445,7 +1661,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1459,9 +1675,21 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>xe-0/0/16</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1470,7 +1698,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1484,9 +1712,21 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>xe-0/0/17</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1495,12 +1735,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1509,9 +1749,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>xe-0/0/18</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1520,12 +1772,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1534,9 +1786,21 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>xe-0/0/19</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1545,12 +1809,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1559,9 +1823,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>xe-0/0/2</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1570,12 +1846,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1584,9 +1860,21 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>xe-0/0/20</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1595,7 +1883,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1609,9 +1897,21 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>xe-0/0/21</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1620,7 +1920,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1634,9 +1934,21 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>xe-0/0/22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1645,12 +1957,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1659,9 +1971,21 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>xe-0/0/23</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1670,12 +1994,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>20:1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1684,9 +2008,21 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>xe-0/0/24</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1695,12 +2031,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>21:0</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1709,9 +2045,21 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>xe-0/0/25</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1720,12 +2068,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>20:1</t>
+          <t>21:1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1734,9 +2082,21 @@
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>xe-0/0/26</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1745,12 +2105,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>21:0</t>
+          <t>22:0</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1759,9 +2119,21 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>xe-0/0/27</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -1770,12 +2142,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>21:1</t>
+          <t>22:1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1784,9 +2156,21 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>xe-0/0/28</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -1795,7 +2179,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1809,9 +2193,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>xe-0/0/29</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -1820,7 +2216,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1834,9 +2230,21 @@
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>xe-0/0/3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -1845,7 +2253,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1859,9 +2267,21 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>xe-0/0/30</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -1870,7 +2290,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1884,9 +2304,21 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>xe-0/0/31</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -1895,7 +2327,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1909,9 +2341,21 @@
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>xe-0/0/32</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -1920,7 +2364,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1934,9 +2378,21 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>xe-0/0/33</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -1945,7 +2401,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1959,9 +2415,21 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>xe-0/0/34</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -1970,7 +2438,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1984,9 +2452,21 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>xe-0/0/35</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -1995,7 +2475,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2009,9 +2489,21 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>xe-0/0/36</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2020,7 +2512,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2034,9 +2526,21 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>xe-0/0/37</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2045,7 +2549,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2059,9 +2563,21 @@
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>xe-0/0/38</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2070,7 +2586,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2084,9 +2600,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2095,7 +2623,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2109,9 +2637,21 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>xe-0/0/4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2120,7 +2660,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2134,9 +2674,21 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2145,7 +2697,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2159,9 +2711,21 @@
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2170,7 +2734,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2184,9 +2748,21 @@
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2195,7 +2771,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2209,9 +2785,21 @@
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2220,7 +2808,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2234,9 +2822,21 @@
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2245,7 +2845,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2259,9 +2859,21 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2270,7 +2882,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2284,9 +2896,21 @@
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2295,7 +2919,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2309,9 +2933,21 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2320,7 +2956,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2334,9 +2970,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2345,7 +2993,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2359,9 +3007,21 @@
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2370,7 +3030,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2384,9 +3044,21 @@
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>xe-0/0/6</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2395,7 +3067,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2409,9 +3081,21 @@
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2420,7 +3104,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2434,9 +3118,21 @@
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>xe-0/0/8</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2445,7 +3141,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2459,9 +3155,21 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>xe-0/0/9</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2470,7 +3178,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2495,7 +3203,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2520,7 +3228,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2545,7 +3253,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2570,7 +3278,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2595,7 +3303,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2620,7 +3328,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2645,12 +3353,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2670,12 +3378,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2695,12 +3403,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2720,12 +3428,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2745,12 +3453,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2770,12 +3478,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2795,12 +3503,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2820,12 +3528,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2845,12 +3553,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2870,12 +3578,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2895,12 +3603,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2920,12 +3628,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2945,12 +3653,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2970,12 +3678,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2995,12 +3703,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3020,12 +3728,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3045,12 +3753,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3070,12 +3778,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3095,12 +3803,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3120,12 +3828,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3145,12 +3853,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3170,12 +3878,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3195,12 +3903,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3220,12 +3928,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3245,12 +3953,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3270,12 +3978,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3295,12 +4003,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3320,12 +4028,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3345,12 +4053,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3370,12 +4078,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3395,12 +4103,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3420,12 +4128,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3445,12 +4153,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3470,12 +4178,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3495,12 +4203,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3520,12 +4228,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3545,12 +4253,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3570,12 +4278,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3595,12 +4303,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3620,12 +4328,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3645,12 +4353,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3670,12 +4378,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3695,12 +4403,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3720,12 +4428,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3745,12 +4453,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3770,12 +4478,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>5:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3795,12 +4503,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3820,12 +4528,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3845,12 +4553,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3870,12 +4578,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3895,12 +4603,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3920,12 +4628,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3945,12 +4653,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3970,12 +4678,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3995,12 +4703,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4020,12 +4728,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4045,12 +4753,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4070,12 +4778,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4095,12 +4803,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4120,12 +4828,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4145,12 +4853,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4170,12 +4878,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4195,12 +4903,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4220,12 +4928,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4245,12 +4953,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4270,12 +4978,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4295,12 +5003,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4320,12 +5028,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4345,12 +5053,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4370,12 +5078,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4395,12 +5103,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4420,12 +5128,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4445,12 +5153,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4470,12 +5178,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4495,12 +5203,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4520,12 +5228,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4545,12 +5253,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4570,12 +5278,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4595,12 +5303,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4620,12 +5328,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4645,12 +5353,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4670,12 +5378,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4695,12 +5403,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>7:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4720,12 +5428,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>7:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4745,12 +5453,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -4770,12 +5478,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -4795,12 +5503,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -4820,12 +5528,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -4845,12 +5553,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -4870,12 +5578,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -4895,12 +5603,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -4920,12 +5628,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -4945,12 +5653,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -4970,12 +5678,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -4995,12 +5703,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5020,12 +5728,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5045,12 +5753,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5070,12 +5778,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5095,12 +5803,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5120,12 +5828,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5145,12 +5853,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5170,12 +5878,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5195,12 +5903,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5220,12 +5928,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5245,12 +5953,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5270,12 +5978,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5295,12 +6003,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5320,12 +6028,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5345,12 +6053,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5370,12 +6078,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5395,12 +6103,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5420,12 +6128,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5445,12 +6153,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5470,12 +6178,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5495,12 +6203,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5520,12 +6228,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5545,12 +6253,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5570,12 +6278,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5595,12 +6303,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5620,12 +6328,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5645,12 +6353,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5670,12 +6378,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5695,12 +6403,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5720,12 +6428,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5745,12 +6453,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5770,12 +6478,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5795,12 +6503,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5820,12 +6528,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-09-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>9:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5845,12 +6553,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>100:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5870,12 +6578,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>100:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5895,12 +6603,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>101:0</t>
+          <t>99:0</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5920,12 +6628,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>101:1</t>
+          <t>99:1</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5945,12 +6653,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>102:0</t>
+          <t>9:0</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5970,12 +6678,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>102:1</t>
+          <t>9:1</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5995,12 +6703,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>103:0</t>
+          <t>100:0</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6020,12 +6728,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>103:1</t>
+          <t>100:1</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6045,12 +6753,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>104:0</t>
+          <t>101:0</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -6070,12 +6778,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>104:1</t>
+          <t>101:1</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -6095,12 +6803,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>105:0</t>
+          <t>102:0</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -6120,12 +6828,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>105:1</t>
+          <t>102:1</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -6145,12 +6853,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>106:0</t>
+          <t>103:0</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6170,12 +6878,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>106:1</t>
+          <t>103:1</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6195,12 +6903,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>107:0</t>
+          <t>104:0</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -6220,12 +6928,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>107:1</t>
+          <t>104:1</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -6245,12 +6953,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>108:0</t>
+          <t>105:0</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -6270,12 +6978,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>108:1</t>
+          <t>105:1</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -6295,12 +7003,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>109:0</t>
+          <t>106:0</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -6320,12 +7028,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>109:1</t>
+          <t>106:1</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -6345,12 +7053,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>10:0</t>
+          <t>107:0</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -6370,12 +7078,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>10:1</t>
+          <t>107:1</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -6395,12 +7103,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>110:0</t>
+          <t>108:0</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -6420,12 +7128,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>110:1</t>
+          <t>108:1</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -6445,12 +7153,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>111:0</t>
+          <t>109:0</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -6470,12 +7178,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>111:1</t>
+          <t>109:1</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -6495,12 +7203,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>112:0</t>
+          <t>10:0</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -6520,12 +7228,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>112:1</t>
+          <t>10:1</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -6545,12 +7253,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>11:0</t>
+          <t>110:0</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -6570,12 +7278,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>11:1</t>
+          <t>110:1</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -6595,12 +7303,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>12:0</t>
+          <t>111:0</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -6620,12 +7328,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>12:1</t>
+          <t>111:1</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -6645,12 +7353,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>13:0</t>
+          <t>112:0</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -6670,12 +7378,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>13:1</t>
+          <t>112:1</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -6695,12 +7403,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>11:0</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6720,12 +7428,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>11:1</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -6745,12 +7453,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>12:0</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -6770,12 +7478,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>12:1</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -6795,12 +7503,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>13:0</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -6820,12 +7528,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>16:1</t>
+          <t>13:1</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -6845,12 +7553,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -6870,12 +7578,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>17:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -6895,12 +7603,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -6920,12 +7628,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>18:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -6945,12 +7653,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>19:0</t>
+          <t>16:0</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -6970,12 +7678,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>19:1</t>
+          <t>16:1</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6995,12 +7703,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>1:0</t>
+          <t>17:0</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -7020,12 +7728,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>1:1</t>
+          <t>17:1</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -7045,12 +7753,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>20:0</t>
+          <t>18:0</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -7070,12 +7778,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>20:1</t>
+          <t>18:1</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -7095,12 +7803,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>21:0</t>
+          <t>19:0</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -7120,12 +7828,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>21:1</t>
+          <t>19:1</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -7145,12 +7853,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>22:0</t>
+          <t>1:0</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -7170,12 +7878,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>22:1</t>
+          <t>1:1</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7195,12 +7903,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>23:0</t>
+          <t>20:0</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -7220,12 +7928,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>23:1</t>
+          <t>20:1</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -7245,12 +7953,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>24:0</t>
+          <t>21:0</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -7270,12 +7978,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>24:1</t>
+          <t>21:1</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -7295,12 +8003,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>25:0</t>
+          <t>22:0</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -7320,12 +8028,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>25:1</t>
+          <t>22:1</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -7345,12 +8053,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>26:0</t>
+          <t>23:0</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -7370,12 +8078,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>26:1</t>
+          <t>23:1</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -7395,12 +8103,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>27:0</t>
+          <t>24:0</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -7420,12 +8128,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>27:1</t>
+          <t>24:1</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -7445,12 +8153,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>28:0</t>
+          <t>25:0</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -7470,12 +8178,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>28:1</t>
+          <t>25:1</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -7495,12 +8203,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>29:0</t>
+          <t>26:0</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -7520,12 +8228,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>29:1</t>
+          <t>26:1</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -7545,12 +8253,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2:0</t>
+          <t>27:0</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -7570,12 +8278,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2:1</t>
+          <t>27:1</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -7595,12 +8303,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>30:0</t>
+          <t>28:0</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -7620,12 +8328,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>30:1</t>
+          <t>28:1</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -7645,12 +8353,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>31:0</t>
+          <t>29:0</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -7670,12 +8378,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>31:1</t>
+          <t>29:1</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -7695,12 +8403,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>32:0</t>
+          <t>2:0</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -7720,12 +8428,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>32:1</t>
+          <t>2:1</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -7745,12 +8453,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>33:0</t>
+          <t>30:0</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -7770,12 +8478,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>33:1</t>
+          <t>30:1</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -7795,12 +8503,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>34:0</t>
+          <t>31:0</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -7820,12 +8528,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>34:1</t>
+          <t>31:1</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -7845,12 +8553,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>35:0</t>
+          <t>32:0</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -7870,12 +8578,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>35:1</t>
+          <t>32:1</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -7895,12 +8603,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>36:0</t>
+          <t>33:0</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -7920,12 +8628,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>36:1</t>
+          <t>33:1</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -7945,12 +8653,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>37:0</t>
+          <t>34:0</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -7970,12 +8678,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>37:1</t>
+          <t>34:1</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -7995,12 +8703,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>38:0</t>
+          <t>35:0</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -8020,12 +8728,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>38:1</t>
+          <t>35:1</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -8045,12 +8753,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>39:0</t>
+          <t>36:0</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -8070,12 +8778,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>39:1</t>
+          <t>36:1</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -8095,12 +8803,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>3:0</t>
+          <t>37:0</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -8120,12 +8828,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>3:1</t>
+          <t>37:1</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -8145,12 +8853,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>40:0</t>
+          <t>38:0</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -8170,12 +8878,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>40:1</t>
+          <t>38:1</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -8195,12 +8903,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>41:0</t>
+          <t>39:0</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -8220,12 +8928,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>41:1</t>
+          <t>39:1</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -8245,12 +8953,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>42:0</t>
+          <t>3:0</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -8270,12 +8978,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>42:1</t>
+          <t>3:1</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -8295,12 +9003,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>43:0</t>
+          <t>40:0</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -8320,12 +9028,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>43:1</t>
+          <t>40:1</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -8345,12 +9053,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>44:0</t>
+          <t>41:0</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -8370,12 +9078,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>44:1</t>
+          <t>41:1</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -8395,12 +9103,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>45:0</t>
+          <t>42:0</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -8420,12 +9128,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>45:1</t>
+          <t>42:1</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -8445,12 +9153,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>46:0</t>
+          <t>43:0</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -8470,12 +9178,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>46:1</t>
+          <t>43:1</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -8495,12 +9203,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>47:0</t>
+          <t>44:0</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -8520,12 +9228,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>47:1</t>
+          <t>44:1</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -8545,12 +9253,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>48:0</t>
+          <t>45:0</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -8570,12 +9278,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>48:1</t>
+          <t>45:1</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -8595,12 +9303,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>49:0</t>
+          <t>46:0</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -8620,12 +9328,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>49:1</t>
+          <t>46:1</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -8645,12 +9353,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>4:0</t>
+          <t>47:0</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -8670,12 +9378,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>4:1</t>
+          <t>47:1</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -8695,12 +9403,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>50:0</t>
+          <t>48:0</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -8720,12 +9428,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>50:1</t>
+          <t>48:1</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -8745,12 +9453,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>51:0</t>
+          <t>49:0</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -8770,12 +9478,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>51:1</t>
+          <t>49:1</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -8795,12 +9503,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>52:0</t>
+          <t>4:0</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -8820,12 +9528,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>52:1</t>
+          <t>4:1</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -8845,12 +9553,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>53:0</t>
+          <t>50:0</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -8870,12 +9578,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>53:1</t>
+          <t>50:1</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -8895,12 +9603,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>54:0</t>
+          <t>51:0</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -8920,12 +9628,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>54:1</t>
+          <t>51:1</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -8945,12 +9653,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>55:0</t>
+          <t>52:0</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -8970,12 +9678,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>55:1</t>
+          <t>52:1</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -8995,12 +9703,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>56:0</t>
+          <t>53:0</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -9020,12 +9728,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>56:1</t>
+          <t>53:1</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -9045,12 +9753,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>57:0</t>
+          <t>54:0</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -9070,12 +9778,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>57:1</t>
+          <t>54:1</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -9095,12 +9803,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>58:0</t>
+          <t>55:0</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -9120,12 +9828,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>58:1</t>
+          <t>55:1</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -9145,12 +9853,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>59:0</t>
+          <t>56:0</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -9170,12 +9878,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>59:1</t>
+          <t>56:1</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -9195,12 +9903,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>5:0</t>
+          <t>57:0</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -9220,12 +9928,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>5:1</t>
+          <t>57:1</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -9245,12 +9953,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>58:0</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -9270,12 +9978,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>58:1</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -9295,12 +10003,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>59:0</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -9320,12 +10028,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>59:1</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -9345,12 +10053,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -9370,12 +10078,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>5:1</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -9395,12 +10103,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -9420,12 +10128,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -9445,12 +10153,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -9470,12 +10178,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -9495,12 +10203,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -9520,12 +10228,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -9545,12 +10253,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -9570,12 +10278,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -9595,12 +10303,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -9620,12 +10328,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -9645,12 +10353,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -9670,12 +10378,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -9695,12 +10403,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -9720,12 +10428,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -9745,12 +10453,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -9770,12 +10478,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -9795,12 +10503,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -9820,12 +10528,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -9845,12 +10553,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -9870,12 +10578,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -9895,12 +10603,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -9920,12 +10628,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -9945,12 +10653,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -9970,12 +10678,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -9995,12 +10703,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -10020,12 +10728,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -10045,12 +10753,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10070,12 +10778,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -10095,12 +10803,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -10120,12 +10828,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -10145,12 +10853,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -10170,12 +10878,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -10195,12 +10903,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -10220,12 +10928,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -10245,12 +10953,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -10270,12 +10978,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -10295,12 +11003,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>7:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -10320,12 +11028,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>7:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -10345,12 +11053,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -10370,12 +11078,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -10395,12 +11103,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -10420,12 +11128,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -10445,12 +11153,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -10470,12 +11178,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -10495,12 +11203,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -10520,12 +11228,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -10545,12 +11253,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -10570,12 +11278,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -10595,12 +11303,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -10620,12 +11328,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -10645,12 +11353,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -10670,12 +11378,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -10695,12 +11403,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -10720,12 +11428,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -10745,12 +11453,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -10770,12 +11478,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -10795,12 +11503,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -10820,12 +11528,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -10845,12 +11553,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -10870,12 +11578,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -10895,12 +11603,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -10920,12 +11628,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -10945,12 +11653,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -10970,12 +11678,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -10995,12 +11703,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -11020,12 +11728,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -11045,12 +11753,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -11070,12 +11778,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -11095,12 +11803,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -11120,12 +11828,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -11145,12 +11853,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -11170,12 +11878,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -11195,12 +11903,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -11220,12 +11928,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -11245,12 +11953,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -11270,12 +11978,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -11295,12 +12003,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -11320,12 +12028,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -11345,12 +12053,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -11370,12 +12078,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -11395,12 +12103,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -11420,12 +12128,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>BOGO-FONT-H-10-COS</t>
+          <t>BOGO-GARCE-H-07-COS</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>9:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -11443,9 +12151,21 @@
       <c r="A434" s="1" t="n">
         <v>432</v>
       </c>
-      <c r="B434" t="inlineStr"/>
-      <c r="C434" t="inlineStr"/>
-      <c r="D434" t="inlineStr"/>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>98:0</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
@@ -11456,9 +12176,21 @@
       <c r="A435" s="1" t="n">
         <v>433</v>
       </c>
-      <c r="B435" t="inlineStr"/>
-      <c r="C435" t="inlineStr"/>
-      <c r="D435" t="inlineStr"/>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>98:1</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
@@ -11469,15 +12201,141 @@
       <c r="A436" s="1" t="n">
         <v>434</v>
       </c>
-      <c r="B436" t="inlineStr"/>
-      <c r="C436" t="inlineStr"/>
-      <c r="D436" t="inlineStr"/>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr"/>
       <c r="I436" t="inlineStr"/>
     </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out8.xlsx
+++ b/out8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I214"/>
+  <dimension ref="A1:I442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,12 +493,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>xe-0/0/14</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -514,7 +514,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -530,12 +530,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>xe-0/0/15</t>
+          <t>xe-0/0/26</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -567,12 +567,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>xe-0/0/16</t>
+          <t>xe-0/0/27</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,12 +604,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>xe-0/0/17</t>
+          <t>xe-0/0/28</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -641,12 +641,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>xe-0/0/18</t>
+          <t>xe-0/0/29</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -678,12 +678,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>xe-0/0/19</t>
+          <t>xe-0/0/30</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -715,12 +715,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>xe-0/0/20</t>
+          <t>xe-0/0/31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -752,12 +752,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>xe-0/0/21</t>
+          <t>xe-0/0/32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -789,12 +789,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>xe-0/0/22</t>
+          <t>xe-0/0/33</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -810,7 +810,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,12 +826,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>xe-0/0/23</t>
+          <t>xe-0/0/34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -863,12 +863,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>xe-0/0/24</t>
+          <t>xe-0/0/35</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -900,12 +900,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>xe-0/0/25</t>
+          <t>xe-0/0/36</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -937,12 +937,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>xe-0/0/26</t>
+          <t>xe-0/0/37</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -958,7 +958,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -974,12 +974,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>xe-0/0/27</t>
+          <t>xe-0/0/38</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -995,7 +995,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1011,12 +1011,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>xe-0/0/28</t>
+          <t>xe-0/0/39</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1048,12 +1048,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>xe-0/0/29</t>
+          <t>xe-0/0/40</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1085,12 +1085,12 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>xe-0/0/30</t>
+          <t>xe-0/0/41</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1122,12 +1122,12 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>xe-0/0/31</t>
+          <t>xe-0/0/42</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1159,12 +1159,12 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>xe-0/0/32</t>
+          <t>xe-0/0/43</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1196,12 +1196,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>xe-0/0/33</t>
+          <t>xe-0/0/44</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1233,12 +1233,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>xe-0/0/34</t>
+          <t>xe-0/0/45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1270,12 +1270,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>xe-0/0/36</t>
+          <t>xe-0/0/46</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1307,12 +1307,12 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>xe-0/0/37</t>
+          <t>xe-0/0/47</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1344,12 +1344,12 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-03-DAAS</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>xe-0/0/38</t>
+          <t>xe-0/0/48</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1381,12 +1381,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>xe-0/0/39</t>
+          <t>xe-0/0/0</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1418,12 +1418,12 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>xe-0/0/40</t>
+          <t>xe-0/0/1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1439,7 +1439,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1455,12 +1455,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>xe-0/0/41</t>
+          <t>xe-0/0/10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1492,12 +1492,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>xe-0/0/42</t>
+          <t>xe-0/0/11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>14:0</t>
+          <t>11:0</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1529,12 +1529,12 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>xe-0/0/43</t>
+          <t>xe-0/0/12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1550,12 +1550,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:1</t>
+          <t>11:1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1566,12 +1566,12 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>xe-0/0/44</t>
+          <t>xe-0/0/13</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1587,12 +1587,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:0</t>
+          <t>12:0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1603,12 +1603,12 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>xe-0/0/45</t>
+          <t>xe-0/0/14</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1624,12 +1624,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>15:1</t>
+          <t>12:1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1640,12 +1640,12 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>xe-0/0/46</t>
+          <t>xe-0/0/15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>16:0</t>
+          <t>13:0</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1677,12 +1677,12 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>xe-0/0/47</t>
+          <t>xe-0/0/16</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16:1</t>
+          <t>13:1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1714,12 +1714,12 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-01-DAAS</t>
+          <t>BOGO-GARCE-H-04-DAAS</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>xe-0/0/48</t>
+          <t>xe-0/0/17</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17:0</t>
+          <t>14:0</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1749,9 +1749,21 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>xe-0/0/18</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1760,12 +1772,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>17:1</t>
+          <t>14:1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1774,9 +1786,21 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>xe-0/0/19</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1785,12 +1809,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>18:0</t>
+          <t>15:0</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1799,9 +1823,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>xe-0/0/2</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1810,12 +1846,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>18:1</t>
+          <t>15:1</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1824,9 +1860,21 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>xe-0/0/20</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1835,7 +1883,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1849,9 +1897,21 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>xe-0/0/21</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1860,7 +1920,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1874,9 +1934,21 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>xe-0/0/22</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1885,7 +1957,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1899,9 +1971,21 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>xe-0/0/23</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -1910,7 +1994,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1924,9 +2008,21 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>xe-0/0/24</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -1935,7 +2031,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1949,9 +2045,21 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>xe-0/0/25</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -1960,7 +2068,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1974,9 +2082,21 @@
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>xe-0/0/26</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -1985,7 +2105,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1999,9 +2119,21 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>xe-0/0/27</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2010,7 +2142,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2024,9 +2156,21 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>xe-0/0/28</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -2035,7 +2179,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2049,9 +2193,21 @@
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>xe-0/0/29</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2060,7 +2216,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2074,9 +2230,21 @@
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>xe-0/0/3</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
@@ -2085,7 +2253,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2099,9 +2267,21 @@
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>xe-0/0/30</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
@@ -2110,7 +2290,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2124,9 +2304,21 @@
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>xe-0/0/31</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -2135,7 +2327,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2149,9 +2341,21 @@
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>xe-0/0/32</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
@@ -2160,7 +2364,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2174,9 +2378,21 @@
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>xe-0/0/33</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
@@ -2185,7 +2401,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2199,9 +2415,21 @@
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>xe-0/0/34</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
@@ -2210,7 +2438,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2224,9 +2452,21 @@
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>xe-0/0/35</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
@@ -2235,7 +2475,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2249,9 +2489,21 @@
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>xe-0/0/36</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -2260,7 +2512,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2274,9 +2526,21 @@
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>xe-0/0/37</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
@@ -2285,7 +2549,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2299,9 +2563,21 @@
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>xe-0/0/38</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
@@ -2310,7 +2586,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2324,9 +2600,21 @@
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>xe-0/0/39</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
@@ -2335,7 +2623,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2349,9 +2637,21 @@
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>xe-0/0/4</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
@@ -2360,7 +2660,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2374,9 +2674,21 @@
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>xe-0/0/40</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
@@ -2385,7 +2697,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2399,9 +2711,21 @@
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>xe-0/0/41</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
@@ -2410,7 +2734,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2424,9 +2748,21 @@
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>xe-0/0/42</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
@@ -2435,7 +2771,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2449,9 +2785,21 @@
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>xe-0/0/43</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
@@ -2460,7 +2808,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2474,9 +2822,21 @@
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>xe-0/0/44</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
@@ -2485,7 +2845,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2499,9 +2859,21 @@
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>xe-0/0/45</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
@@ -2510,7 +2882,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2524,9 +2896,21 @@
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>xe-0/0/46</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
@@ -2535,7 +2919,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2549,9 +2933,21 @@
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>xe-0/0/47</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
@@ -2560,7 +2956,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2574,9 +2970,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>xe-0/0/48</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
@@ -2585,7 +2993,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2599,9 +3007,21 @@
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>xe-0/0/5</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
@@ -2610,7 +3030,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2624,9 +3044,21 @@
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>xe-0/0/6</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
@@ -2635,7 +3067,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2649,9 +3081,21 @@
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>xe-0/0/7</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
@@ -2660,7 +3104,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2674,9 +3118,21 @@
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>xe-0/0/8</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -2685,7 +3141,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2699,9 +3155,21 @@
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-04-DAAS</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>xe-0/0/9</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>PUERTOLIBRE</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
@@ -2710,7 +3178,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2735,7 +3203,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2760,7 +3228,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2785,7 +3253,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2810,7 +3278,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2835,7 +3303,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2860,7 +3328,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2885,7 +3353,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2910,7 +3378,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2935,7 +3403,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2960,7 +3428,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2985,7 +3453,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3010,7 +3478,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3035,7 +3503,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3060,7 +3528,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3085,7 +3553,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3110,7 +3578,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3135,7 +3603,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3160,7 +3628,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3185,7 +3653,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3210,7 +3678,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3235,7 +3703,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3260,7 +3728,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3285,7 +3753,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3310,7 +3778,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3335,7 +3803,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3360,7 +3828,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3385,7 +3853,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3410,7 +3878,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3435,7 +3903,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3460,7 +3928,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3485,7 +3953,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3510,7 +3978,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3535,7 +4003,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3560,7 +4028,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3585,7 +4053,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3610,7 +4078,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3635,7 +4103,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3660,7 +4128,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3685,7 +4153,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3710,7 +4178,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3735,7 +4203,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3760,7 +4228,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3785,7 +4253,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3810,7 +4278,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3835,7 +4303,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3860,7 +4328,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3885,7 +4353,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3910,7 +4378,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3935,7 +4403,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3960,7 +4428,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3985,12 +4453,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>60:0</t>
+          <t>5:0</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4010,12 +4478,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>60:1</t>
+          <t>5:1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4035,12 +4503,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>61:0</t>
+          <t>60:0</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4060,12 +4528,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>61:1</t>
+          <t>60:1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4085,12 +4553,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>62:0</t>
+          <t>61:0</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4110,12 +4578,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>62:1</t>
+          <t>61:1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4135,12 +4603,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>63:0</t>
+          <t>62:0</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4160,12 +4628,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>63:1</t>
+          <t>62:1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4185,12 +4653,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>64:0</t>
+          <t>63:0</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4210,12 +4678,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>64:1</t>
+          <t>63:1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4235,12 +4703,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>65:0</t>
+          <t>64:0</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4260,12 +4728,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>65:1</t>
+          <t>64:1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4285,12 +4753,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>66:0</t>
+          <t>65:0</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4310,12 +4778,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>66:1</t>
+          <t>65:1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4335,12 +4803,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>67:0</t>
+          <t>66:0</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4360,12 +4828,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>67:1</t>
+          <t>66:1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4385,12 +4853,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>68:0</t>
+          <t>67:0</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4410,12 +4878,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>68:1</t>
+          <t>67:1</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,12 +4903,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>69:0</t>
+          <t>68:0</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4460,12 +4928,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>69:1</t>
+          <t>68:1</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -4485,12 +4953,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>6:0</t>
+          <t>69:0</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -4510,12 +4978,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>6:1</t>
+          <t>69:1</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4535,12 +5003,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>70:0</t>
+          <t>6:0</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4560,12 +5028,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>70:1</t>
+          <t>6:1</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4585,12 +5053,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>71:0</t>
+          <t>70:0</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4610,12 +5078,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>71:1</t>
+          <t>70:1</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -4635,12 +5103,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>72:0</t>
+          <t>71:0</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4660,12 +5128,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>72:1</t>
+          <t>71:1</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4685,12 +5153,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>73:0</t>
+          <t>72:0</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4710,12 +5178,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>73:1</t>
+          <t>72:1</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4735,12 +5203,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>74:0</t>
+          <t>73:0</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4760,12 +5228,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>74:1</t>
+          <t>73:1</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -4785,12 +5253,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>75:0</t>
+          <t>74:0</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4810,12 +5278,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>75:1</t>
+          <t>74:1</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4835,12 +5303,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>76:0</t>
+          <t>75:0</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4860,12 +5328,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>76:1</t>
+          <t>75:1</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4885,12 +5353,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>77:0</t>
+          <t>76:0</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4910,12 +5378,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>77:1</t>
+          <t>76:1</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4935,12 +5403,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>78:0</t>
+          <t>77:0</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4960,12 +5428,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>78:1</t>
+          <t>77:1</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4985,12 +5453,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>79:0</t>
+          <t>78:0</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -5010,12 +5478,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>79:1</t>
+          <t>78:1</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -5035,12 +5503,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>80:0</t>
+          <t>79:0</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5060,12 +5528,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>80:1</t>
+          <t>79:1</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -5085,12 +5553,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>81:0</t>
+          <t>7:0</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5110,12 +5578,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>81:1</t>
+          <t>7:1</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5135,12 +5603,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>82:0</t>
+          <t>80:0</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5160,12 +5628,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>82:1</t>
+          <t>80:1</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5185,12 +5653,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>83:0</t>
+          <t>81:0</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5210,12 +5678,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>83:1</t>
+          <t>81:1</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -5235,12 +5703,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>84:0</t>
+          <t>82:0</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5260,12 +5728,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>84:1</t>
+          <t>82:1</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5285,12 +5753,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>85:0</t>
+          <t>83:0</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -5310,12 +5778,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>85:1</t>
+          <t>83:1</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5335,12 +5803,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>86:0</t>
+          <t>84:0</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5360,12 +5828,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>86:1</t>
+          <t>84:1</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -5385,12 +5853,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>87:0</t>
+          <t>85:0</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -5410,12 +5878,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>87:1</t>
+          <t>85:1</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5435,12 +5903,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>88:0</t>
+          <t>86:0</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -5460,12 +5928,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>88:1</t>
+          <t>86:1</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5485,12 +5953,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>89:0</t>
+          <t>87:0</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5510,12 +5978,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>89:1</t>
+          <t>87:1</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5535,12 +6003,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>8:0</t>
+          <t>88:0</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5560,12 +6028,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>8:1</t>
+          <t>88:1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5585,12 +6053,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>90:0</t>
+          <t>89:0</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5610,12 +6078,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>90:1</t>
+          <t>89:1</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5635,12 +6103,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>91:0</t>
+          <t>8:0</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5660,12 +6128,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>91:1</t>
+          <t>8:1</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5685,12 +6153,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>92:0</t>
+          <t>90:0</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5710,12 +6178,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>92:1</t>
+          <t>90:1</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5735,12 +6203,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>93:0</t>
+          <t>91:0</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5760,12 +6228,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>93:1</t>
+          <t>91:1</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5785,12 +6253,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>94:0</t>
+          <t>92:0</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5810,12 +6278,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>94:1</t>
+          <t>92:1</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5835,12 +6303,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>95:0</t>
+          <t>93:0</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5860,12 +6328,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>95:1</t>
+          <t>93:1</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5885,12 +6353,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>96:0</t>
+          <t>94:0</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5910,12 +6378,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>96:1</t>
+          <t>94:1</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5935,12 +6403,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>97:0</t>
+          <t>95:0</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5960,12 +6428,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>97:1</t>
+          <t>95:1</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5985,12 +6453,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>98:0</t>
+          <t>96:0</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6010,12 +6478,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>98:1</t>
+          <t>96:1</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6035,12 +6503,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>99:0</t>
+          <t>97:0</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6060,12 +6528,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>99:1</t>
+          <t>97:1</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6085,12 +6553,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>9:0</t>
+          <t>98:0</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6110,12 +6578,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MADRI-MADR-H-03-COS</t>
+          <t>BOGO-GARCE-H-06-COS</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>9:1</t>
+          <t>98:1</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -6133,9 +6601,21 @@
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="B212" t="inlineStr"/>
-      <c r="C212" t="inlineStr"/>
-      <c r="D212" t="inlineStr"/>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
@@ -6146,9 +6626,21 @@
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="B213" t="inlineStr"/>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
@@ -6159,15 +6651,5691 @@
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="B214" t="inlineStr"/>
-      <c r="C214" t="inlineStr"/>
-      <c r="D214" t="inlineStr"/>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
     </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-06-COS</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>100:0</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>100:1</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>101:0</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>101:1</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>102:0</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>102:1</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>103:0</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>103:1</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>104:0</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>104:1</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>105:0</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>105:1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>106:0</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>106:1</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>107:0</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>107:1</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>108:0</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>108:1</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>109:0</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>109:1</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>10:0</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>10:1</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>110:0</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>110:1</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>111:0</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>111:1</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>112:0</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>112:1</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>11:0</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>11:1</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>12:0</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>12:1</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>13:0</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>13:1</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>14:0</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>14:1</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>15:0</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>15:1</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>16:0</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>16:1</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>17:0</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
+      <c r="H256" t="inlineStr"/>
+      <c r="I256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>17:1</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
+      <c r="H257" t="inlineStr"/>
+      <c r="I257" t="inlineStr"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>18:0</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr"/>
+      <c r="I258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>18:1</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
+      <c r="H259" t="inlineStr"/>
+      <c r="I259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>19:0</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>19:1</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>1:0</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>1:1</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>20:0</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>20:1</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>21:0</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>21:1</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>22:0</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>22:1</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>23:0</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>23:1</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>24:0</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>24:1</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>25:0</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>25:1</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>26:0</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>26:1</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>27:0</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>27:1</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>28:0</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>28:1</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr"/>
+      <c r="I281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>29:0</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr"/>
+      <c r="I282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>29:1</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr"/>
+      <c r="I283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2:0</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
+      <c r="H284" t="inlineStr"/>
+      <c r="I284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2:1</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
+      <c r="H285" t="inlineStr"/>
+      <c r="I285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>30:0</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
+      <c r="H286" t="inlineStr"/>
+      <c r="I286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>30:1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
+      <c r="H287" t="inlineStr"/>
+      <c r="I287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>31:0</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
+      <c r="H288" t="inlineStr"/>
+      <c r="I288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>31:1</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>32:0</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
+      <c r="H290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>32:1</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
+      <c r="H291" t="inlineStr"/>
+      <c r="I291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>33:0</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
+      <c r="H292" t="inlineStr"/>
+      <c r="I292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>33:1</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
+      <c r="H293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>34:0</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
+      <c r="H294" t="inlineStr"/>
+      <c r="I294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>34:1</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
+      <c r="H295" t="inlineStr"/>
+      <c r="I295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>35:0</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>35:1</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>36:0</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>36:1</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>37:0</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>37:1</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>38:0</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>38:1</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>39:0</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>39:1</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
+      <c r="H305" t="inlineStr"/>
+      <c r="I305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>3:0</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>3:1</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>40:0</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>40:1</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>41:0</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>41:1</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>42:0</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>42:1</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>43:0</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>43:1</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>44:0</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>44:1</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>45:0</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>45:1</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>46:0</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>46:1</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>47:0</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>47:1</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>48:0</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>48:1</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>49:0</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>49:1</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>4:0</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
+      <c r="H328" t="inlineStr"/>
+      <c r="I328" t="inlineStr"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>4:1</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
+      <c r="H329" t="inlineStr"/>
+      <c r="I329" t="inlineStr"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>50:0</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
+      <c r="H330" t="inlineStr"/>
+      <c r="I330" t="inlineStr"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>50:1</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
+      <c r="H331" t="inlineStr"/>
+      <c r="I331" t="inlineStr"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>51:0</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
+      <c r="H332" t="inlineStr"/>
+      <c r="I332" t="inlineStr"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>51:1</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
+      <c r="H333" t="inlineStr"/>
+      <c r="I333" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>52:0</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>52:1</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>53:0</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>53:1</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>54:0</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>54:1</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
+      <c r="H339" t="inlineStr"/>
+      <c r="I339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>55:0</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>55:1</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>56:0</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>56:1</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>57:0</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>57:1</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
+      <c r="H345" t="inlineStr"/>
+      <c r="I345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>58:0</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>58:1</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>59:0</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>59:1</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>5:0</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
+      <c r="H350" t="inlineStr"/>
+      <c r="I350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>5:1</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
+      <c r="H351" t="inlineStr"/>
+      <c r="I351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>60:0</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
+      <c r="H352" t="inlineStr"/>
+      <c r="I352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>60:1</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>61:0</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>61:1</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>62:0</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>62:1</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
+      <c r="H357" t="inlineStr"/>
+      <c r="I357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>63:0</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" t="inlineStr"/>
+      <c r="I358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>63:1</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>64:0</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>64:1</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>65:0</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>65:1</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
+      <c r="H363" t="inlineStr"/>
+      <c r="I363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>66:0</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
+      <c r="H364" t="inlineStr"/>
+      <c r="I364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>66:1</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>67:0</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>67:1</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>68:0</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>68:1</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
+      <c r="H369" t="inlineStr"/>
+      <c r="I369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>69:0</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>69:1</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>6:0</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>6:1</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>70:0</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>70:1</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>71:0</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>71:1</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>72:0</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>72:1</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
+      <c r="H379" t="inlineStr"/>
+      <c r="I379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>73:0</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>73:1</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>74:0</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>74:1</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>75:0</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
+      <c r="H384" t="inlineStr"/>
+      <c r="I384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>75:1</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>76:0</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>76:1</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>77:0</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>77:1</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>78:0</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>78:1</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>79:0</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>79:1</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>7:0</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>7:1</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
+      <c r="H395" t="inlineStr"/>
+      <c r="I395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>80:0</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>80:1</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>81:0</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>81:1</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>82:0</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>82:1</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>83:0</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>83:1</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>84:0</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>84:1</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>85:0</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
+      <c r="H406" t="inlineStr"/>
+      <c r="I406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>85:1</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>86:0</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr"/>
+      <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>86:1</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr"/>
+      <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>87:0</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr"/>
+      <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>87:1</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr"/>
+      <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>88:0</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr"/>
+      <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>88:1</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr"/>
+      <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>89:0</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr"/>
+      <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>89:1</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr"/>
+      <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>8:0</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr"/>
+      <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>8:1</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
+      <c r="H417" t="inlineStr"/>
+      <c r="I417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>90:0</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
+      <c r="H418" t="inlineStr"/>
+      <c r="I418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>90:1</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>91:0</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>91:1</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>92:0</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>92:1</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>93:0</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>93:1</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>94:0</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>94:1</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>95:0</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>95:1</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
+      <c r="H429" t="inlineStr"/>
+      <c r="I429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>96:0</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
+      <c r="H430" t="inlineStr"/>
+      <c r="I430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>96:1</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
+      <c r="H431" t="inlineStr"/>
+      <c r="I431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>97:0</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>97:1</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>98:0</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>98:1</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>99:0</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
+      <c r="H436" t="inlineStr"/>
+      <c r="I436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>99:1</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
+      <c r="H437" t="inlineStr"/>
+      <c r="I437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>9:0</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
+      <c r="H438" t="inlineStr"/>
+      <c r="I438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>BOGO-GARCE-H-07-COS</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>9:1</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>unlocked</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr"/>
+      <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="inlineStr"/>
+      <c r="C440" t="inlineStr"/>
+      <c r="D440" t="inlineStr"/>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="inlineStr"/>
+      <c r="C441" t="inlineStr"/>
+      <c r="D441" t="inlineStr"/>
+      <c r="E441" t="inlineStr"/>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
+      <c r="D442" t="inlineStr"/>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/out8.xlsx
+++ b/out8.xlsx
@@ -1601,21 +1601,9 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>xe-0/0/0</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1638,21 +1626,9 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>xe-0/0/36</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
     </row>
     <row r="34">
@@ -1675,21 +1651,9 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>xe-0/0/37</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1712,21 +1676,9 @@
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>xe-0/0/38</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1749,21 +1701,9 @@
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>xe-0/0/39</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
@@ -1786,21 +1726,9 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>xe-0/0/40</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1823,21 +1751,9 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>xe-0/0/41</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1860,21 +1776,9 @@
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>xe-0/0/42</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -1897,21 +1801,9 @@
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>xe-0/0/43</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -1934,21 +1826,9 @@
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>xe-0/0/44</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -1971,21 +1851,9 @@
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>xe-0/0/45</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2008,21 +1876,9 @@
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>xe-0/0/46</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
@@ -2045,21 +1901,9 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>xe-0/0/47</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
     </row>
     <row r="45">
@@ -2082,21 +1926,9 @@
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>xe-0/0/48</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
@@ -2119,21 +1951,9 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>xe-0/0/5</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
@@ -2156,21 +1976,9 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>MEDE-CABA-H-03-DAAS</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>xe-0/0/7</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PUERTOLIBRE</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
